--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H2">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I2">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J2">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>34.16091497918934</v>
+        <v>133.9388931871764</v>
       </c>
       <c r="R2">
-        <v>307.448234812704</v>
+        <v>1205.450038684588</v>
       </c>
       <c r="S2">
-        <v>0.004885892701954704</v>
+        <v>0.0129401646253385</v>
       </c>
       <c r="T2">
-        <v>0.004885892701954702</v>
+        <v>0.0129401646253385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H3">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I3">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J3">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>522.9445538129058</v>
+        <v>829.2012403528234</v>
       </c>
       <c r="R3">
-        <v>4706.500984316152</v>
+        <v>7462.811163175412</v>
       </c>
       <c r="S3">
-        <v>0.07479457094629813</v>
+        <v>0.08011116339975642</v>
       </c>
       <c r="T3">
-        <v>0.0747945709462981</v>
+        <v>0.08011116339975644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H4">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I4">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J4">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>1491.064414368464</v>
+        <v>3066.746609837178</v>
       </c>
       <c r="R4">
-        <v>13419.57972931618</v>
+        <v>27600.7194885346</v>
       </c>
       <c r="S4">
-        <v>0.2132607029040451</v>
+        <v>0.2962859036025786</v>
       </c>
       <c r="T4">
-        <v>0.2132607029040451</v>
+        <v>0.2962859036025786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H5">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I5">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J5">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>780.5591006322584</v>
+        <v>391.2818235610943</v>
       </c>
       <c r="R5">
-        <v>7025.031905690325</v>
+        <v>3521.536412049848</v>
       </c>
       <c r="S5">
-        <v>0.1116401014301515</v>
+        <v>0.03780269562708301</v>
       </c>
       <c r="T5">
-        <v>0.1116401014301514</v>
+        <v>0.03780269562708301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H6">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I6">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J6">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>2380.515753134157</v>
+        <v>4297.911696555335</v>
       </c>
       <c r="R6">
-        <v>21424.64177820741</v>
+        <v>38681.20526899801</v>
       </c>
       <c r="S6">
-        <v>0.3404752054273692</v>
+        <v>0.4152317790238293</v>
       </c>
       <c r="T6">
-        <v>0.3404752054273691</v>
+        <v>0.4152317790238294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H7">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I7">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J7">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>1472.592071635789</v>
+        <v>1407.330321612202</v>
       </c>
       <c r="R7">
-        <v>13253.3286447221</v>
+        <v>12665.97289450982</v>
       </c>
       <c r="S7">
-        <v>0.2106186810319564</v>
+        <v>0.1359656303747628</v>
       </c>
       <c r="T7">
-        <v>0.2106186810319563</v>
+        <v>0.1359656303747629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J8">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>0.2106043087253334</v>
+        <v>0.520763053442111</v>
       </c>
       <c r="R8">
-        <v>1.895438778528</v>
+        <v>4.686867480979</v>
       </c>
       <c r="S8">
-        <v>3.012185287274001E-05</v>
+        <v>5.031219447899731E-05</v>
       </c>
       <c r="T8">
-        <v>3.012185287274E-05</v>
+        <v>5.031219447899732E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J9">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>3.223987891557889</v>
@@ -1013,10 +1013,10 @@
         <v>29.015891024021</v>
       </c>
       <c r="S9">
-        <v>0.0004611134953542403</v>
+        <v>0.0003114773690757309</v>
       </c>
       <c r="T9">
-        <v>0.0004611134953542402</v>
+        <v>0.0003114773690757309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J10">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>9.192511103532111</v>
+        <v>11.92370857089445</v>
       </c>
       <c r="R10">
-        <v>82.732599931789</v>
+        <v>107.31337713805</v>
       </c>
       <c r="S10">
-        <v>0.001314766391378752</v>
+        <v>0.001151978698497311</v>
       </c>
       <c r="T10">
-        <v>0.001314766391378752</v>
+        <v>0.001151978698497311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J11">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>4.812198675242445</v>
+        <v>1.521328960881556</v>
       </c>
       <c r="R11">
-        <v>43.309788077182</v>
+        <v>13.691960647934</v>
       </c>
       <c r="S11">
-        <v>0.0006882686368923805</v>
+        <v>0.0001469793182148476</v>
       </c>
       <c r="T11">
-        <v>0.0006882686368923804</v>
+        <v>0.0001469793182148476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J12">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>14.67603765601722</v>
+        <v>16.71055781680156</v>
       </c>
       <c r="R12">
-        <v>132.084338904155</v>
+        <v>150.395020351214</v>
       </c>
       <c r="S12">
-        <v>0.002099052244965617</v>
+        <v>0.001614447932076478</v>
       </c>
       <c r="T12">
-        <v>0.002099052244965617</v>
+        <v>0.001614447932076478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J13">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>9.078627884241223</v>
+        <v>5.471791038770556</v>
       </c>
       <c r="R13">
-        <v>81.70765095817102</v>
+        <v>49.246119348935</v>
       </c>
       <c r="S13">
-        <v>0.001298478151138482</v>
+        <v>0.0005286431383167651</v>
       </c>
       <c r="T13">
-        <v>0.001298478151138482</v>
+        <v>0.0005286431383167652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H14">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>0.4912807481066667</v>
+        <v>0.1390124898671111</v>
       </c>
       <c r="R14">
-        <v>4.42152673296</v>
+        <v>1.251112408804</v>
       </c>
       <c r="S14">
-        <v>7.026582933295225E-05</v>
+        <v>1.343033723105936E-05</v>
       </c>
       <c r="T14">
-        <v>7.026582933295223E-05</v>
+        <v>1.343033723105936E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H15">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>7.520658968649443</v>
+        <v>0.8606113301328888</v>
       </c>
       <c r="R15">
-        <v>67.685930717845</v>
+        <v>7.745501971196</v>
       </c>
       <c r="S15">
-        <v>0.001075648377427813</v>
+        <v>8.314576912912214E-05</v>
       </c>
       <c r="T15">
-        <v>0.001075648377427813</v>
+        <v>8.314576912912214E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H16">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>21.44354861140055</v>
+        <v>3.182914774644445</v>
       </c>
       <c r="R16">
-        <v>192.991937502605</v>
+        <v>28.6462329718</v>
       </c>
       <c r="S16">
-        <v>0.003066981014070577</v>
+        <v>0.0003075091946202874</v>
       </c>
       <c r="T16">
-        <v>0.003066981014070576</v>
+        <v>0.0003075091946202874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H17">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>11.22550901033222</v>
+        <v>0.4061035539315556</v>
       </c>
       <c r="R17">
-        <v>101.02958109299</v>
+        <v>3.654931985384</v>
       </c>
       <c r="S17">
-        <v>0.001605537573648752</v>
+        <v>3.923465931188156E-05</v>
       </c>
       <c r="T17">
-        <v>0.001605537573648752</v>
+        <v>3.923465931188156E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H18">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>34.23507715738611</v>
+        <v>4.460716315851556</v>
       </c>
       <c r="R18">
-        <v>308.115694416475</v>
+        <v>40.14644684266401</v>
       </c>
       <c r="S18">
-        <v>0.004896499807924594</v>
+        <v>0.0004309607321705048</v>
       </c>
       <c r="T18">
-        <v>0.004896499807924592</v>
+        <v>0.0004309607321705048</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H19">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>21.17789102106611</v>
+        <v>1.460639903895556</v>
       </c>
       <c r="R19">
-        <v>190.601019189595</v>
+        <v>13.14575913506</v>
       </c>
       <c r="S19">
-        <v>0.003028985120733861</v>
+        <v>0.0001411159997293206</v>
       </c>
       <c r="T19">
-        <v>0.003028985120733859</v>
+        <v>0.0001411159997293206</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H20">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I20">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J20">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>0.4925483756693333</v>
+        <v>2.172304436995333</v>
       </c>
       <c r="R20">
-        <v>4.432935381024</v>
+        <v>19.550739932958</v>
       </c>
       <c r="S20">
-        <v>7.044713279806735E-05</v>
+        <v>0.0002098716538727094</v>
       </c>
       <c r="T20">
-        <v>7.044713279806733E-05</v>
+        <v>0.0002098716538727094</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H21">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I21">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J21">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>7.540064155265886</v>
+        <v>13.44850245300467</v>
       </c>
       <c r="R21">
-        <v>67.86057739739299</v>
+        <v>121.036522077042</v>
       </c>
       <c r="S21">
-        <v>0.001078423820056534</v>
+        <v>0.001299292771241226</v>
       </c>
       <c r="T21">
-        <v>0.001078423820056534</v>
+        <v>0.001299292771241226</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H22">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I22">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J22">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>21.49887834570411</v>
+        <v>49.73840763623334</v>
       </c>
       <c r="R22">
-        <v>193.489905111337</v>
+        <v>447.6456687261001</v>
       </c>
       <c r="S22">
-        <v>0.003074894594406453</v>
+        <v>0.004805349422408657</v>
       </c>
       <c r="T22">
-        <v>0.003074894594406452</v>
+        <v>0.004805349422408658</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H23">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I23">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J23">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>11.25447363937844</v>
+        <v>6.346052451318668</v>
       </c>
       <c r="R23">
-        <v>101.290262754406</v>
+        <v>57.11447206186801</v>
       </c>
       <c r="S23">
-        <v>0.001609680263320793</v>
+        <v>0.0006131076753511557</v>
       </c>
       <c r="T23">
-        <v>0.001609680263320793</v>
+        <v>0.000613107675351156</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H24">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I24">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J24">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>34.32341224395721</v>
+        <v>69.70621024315868</v>
       </c>
       <c r="R24">
-        <v>308.910710195615</v>
+        <v>627.3558921884281</v>
       </c>
       <c r="S24">
-        <v>0.004909134005663947</v>
+        <v>0.00673448775401177</v>
       </c>
       <c r="T24">
-        <v>0.004909134005663946</v>
+        <v>0.006734487754011771</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H25">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I25">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J25">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>21.23253529214922</v>
+        <v>22.82496016809667</v>
       </c>
       <c r="R25">
-        <v>191.092817629343</v>
+        <v>205.42464151287</v>
       </c>
       <c r="S25">
-        <v>0.003036800662134062</v>
+        <v>0.002205175323714285</v>
       </c>
       <c r="T25">
-        <v>0.00303680066213406</v>
+        <v>0.002205175323714285</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H26">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>0.3899723915306667</v>
+        <v>0.1336385335795555</v>
       </c>
       <c r="R26">
-        <v>3.509751523776</v>
+        <v>1.202746802216</v>
       </c>
       <c r="S26">
-        <v>5.577611907948733E-05</v>
+        <v>1.29111461477557E-05</v>
       </c>
       <c r="T26">
-        <v>5.57761190794873E-05</v>
+        <v>1.291114614775571E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H27">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>5.969803162842443</v>
+        <v>0.8273417464204441</v>
       </c>
       <c r="R27">
-        <v>53.728228465582</v>
+        <v>7.446075717783998</v>
       </c>
       <c r="S27">
-        <v>0.0008538359620404458</v>
+        <v>7.993151313513031E-05</v>
       </c>
       <c r="T27">
-        <v>0.0008538359620404455</v>
+        <v>7.993151313513031E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H28">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>17.02161537393755</v>
+        <v>3.059869393022222</v>
       </c>
       <c r="R28">
-        <v>153.194538365438</v>
+        <v>27.5388245372</v>
       </c>
       <c r="S28">
-        <v>0.002434530409436213</v>
+        <v>0.0002956214788366869</v>
       </c>
       <c r="T28">
-        <v>0.002434530409436212</v>
+        <v>0.0002956214788366869</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H29">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>8.910665870338221</v>
+        <v>0.3904043692817777</v>
       </c>
       <c r="R29">
-        <v>80.195992833044</v>
+        <v>3.513639323536</v>
       </c>
       <c r="S29">
-        <v>0.001274455247231072</v>
+        <v>3.77179226193675E-05</v>
       </c>
       <c r="T29">
-        <v>0.001274455247231072</v>
+        <v>3.77179226193675E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H30">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>27.17536757700111</v>
+        <v>4.288273576961777</v>
       </c>
       <c r="R30">
-        <v>244.57830819301</v>
+        <v>38.594462192656</v>
       </c>
       <c r="S30">
-        <v>0.003886779092371871</v>
+        <v>0.0004143006166761978</v>
       </c>
       <c r="T30">
-        <v>0.00388677909237187</v>
+        <v>0.0004143006166761979</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H31">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>16.81073976720911</v>
+        <v>1.404174366137777</v>
       </c>
       <c r="R31">
-        <v>151.296657904882</v>
+        <v>12.63756929524</v>
       </c>
       <c r="S31">
-        <v>0.002404369753945503</v>
+        <v>0.0001356607257841879</v>
       </c>
       <c r="T31">
-        <v>0.002404369753945502</v>
+        <v>0.0001356607257841879</v>
       </c>
     </row>
   </sheetData>
